--- a/联锁表.xlsx
+++ b/联锁表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wk\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_project\CI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C4E518-C230-480A-867C-5341DE66C8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D64F44-2367-44B8-A039-92993FB2826F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,20 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="171">
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>X，XI</t>
-  </si>
-  <si>
     <t>XF</t>
   </si>
   <si>
-    <t>XF，XII</t>
-  </si>
-  <si>
     <t>S3</t>
   </si>
   <si>
@@ -49,12 +43,6 @@
     <t>S</t>
   </si>
   <si>
-    <t>S、SII</t>
-  </si>
-  <si>
-    <t>SF、SI</t>
-  </si>
-  <si>
     <t>X3</t>
   </si>
   <si>
@@ -85,36 +73,6 @@
     <t>道岔</t>
   </si>
   <si>
-    <t>1/3,5/7,11</t>
-  </si>
-  <si>
-    <t>11,(5/7),[1/3]</t>
-  </si>
-  <si>
-    <t>(11),5/7,1/3</t>
-  </si>
-  <si>
-    <t>（2/4），6/8,(12)</t>
-  </si>
-  <si>
-    <t>(2/4)，6/8,12</t>
-  </si>
-  <si>
-    <t>2/4,6/8,10</t>
-  </si>
-  <si>
-    <t>2/4,6/8,10,9,1/3,5/7</t>
-  </si>
-  <si>
-    <t>(12),6/8,2/4</t>
-  </si>
-  <si>
-    <t>(12),6/8,(2/4)</t>
-  </si>
-  <si>
-    <t>1/3,5/7</t>
-  </si>
-  <si>
     <t>敌对信号</t>
   </si>
   <si>
@@ -193,388 +151,489 @@
     <t>D7A</t>
   </si>
   <si>
+    <t>3G</t>
+  </si>
+  <si>
+    <t>IG</t>
+  </si>
+  <si>
+    <t>IIG</t>
+  </si>
+  <si>
+    <t>4G</t>
+  </si>
+  <si>
+    <t>进路序号</t>
+  </si>
+  <si>
+    <t>信号机显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迎面进路（列车）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迎面进路（调车）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排列进路按下起点按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排列进路按下终点按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D8,D6,X4D,SF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D8,D4,D2,XIID,S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D8,D4,D2,X4D,S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D10,D6,D2,X3D,S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3,D5,SII,XIID,D8,D4,D2</t>
+  </si>
+  <si>
+    <t>D7,D3,XF,S3D</t>
+  </si>
+  <si>
+    <t>D7,D3,XF,SID</t>
+  </si>
+  <si>
+    <t>D5,D3,XF,SIID</t>
+  </si>
+  <si>
+    <t>D5,D3,XF,S4D</t>
+  </si>
+  <si>
+    <t>D5,D1,X,S3D</t>
+  </si>
+  <si>
+    <t>D5,D1,X,SID</t>
+  </si>
+  <si>
+    <t>D5,D1,X,SIID</t>
+  </si>
+  <si>
+    <t>D5,D1,X,S4D</t>
+  </si>
+  <si>
+    <t>D2,D4,D8,XIID</t>
+  </si>
+  <si>
+    <t>D2,D4,D8,X4D</t>
+  </si>
+  <si>
+    <t>D2,D4,D8,SIID,XII,D5,D3</t>
+  </si>
+  <si>
+    <t>D10,D6,D2,XID,S</t>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SII</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XII</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAG,1-7DG-A,1-7DG-B,1-7DG-C,11DG-A,11DG-B,IG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAG,1-7DG-A,1-3DC,3-5DG-C,9DG-A,9DG-B,IIG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAG,1-7DG-A,1-3DC,3-5DG-C,9DG-A,9DG-C,9DG-D,4G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAG,1-7DG-A,1-7DG-B,1-7DG-C,11DG-A,11DG-C,11DG-D,3G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>轨道区段</t>
-  </si>
-  <si>
-    <t>IAG,1-7DG,11DG,3G</t>
-  </si>
-  <si>
-    <t>IAG,1-7DG,11DG,IG</t>
-  </si>
-  <si>
-    <t>IAG,1-7DG,3-5DG,9DG,IIG</t>
-  </si>
-  <si>
-    <t>IAG,1-7DG,3-5DG,9DG,4G</t>
-  </si>
-  <si>
-    <t>IIAG,3-5DG,1-7DG,11DG,3G</t>
-  </si>
-  <si>
-    <t>IIAG,3-5DG,1-7DG,11DG,IG</t>
-  </si>
-  <si>
-    <t>IIAG,3-5DG,1-7DG,9DG,IIG</t>
-  </si>
-  <si>
-    <t>IIAG,3-5DG,1-7DG,9DG,4G</t>
-  </si>
-  <si>
-    <t>IIAG,3-5DG,1-7DG,9DG,IIG,10DG,8DG,2DG,IIBG</t>
-  </si>
-  <si>
-    <t>11DG,1-7DG,5-3DG,IIAG</t>
-  </si>
-  <si>
-    <t>9DG,5-3DG,IIAG</t>
-  </si>
-  <si>
-    <t>11DG,1-7DG,IAG</t>
-  </si>
-  <si>
-    <t>9DG,1-7DG,5-3DG,IAG</t>
-  </si>
-  <si>
-    <t>4DG,6DG,12DG,3G</t>
-  </si>
-  <si>
-    <t>4DG,6DG,12DG,IG</t>
-  </si>
-  <si>
-    <t>12DG,6DG,4DG</t>
-  </si>
-  <si>
-    <t>10DG,6DG,8DG,4DG</t>
-  </si>
-  <si>
-    <t>10DG,8DG,2DG,IIBG</t>
-  </si>
-  <si>
-    <t>1-7DG,11DG,3G</t>
-  </si>
-  <si>
-    <t>1-7DG,11DG,IG</t>
-  </si>
-  <si>
-    <t>1-7DG,3-5DG,9DG,IIG</t>
-  </si>
-  <si>
-    <t>1-7DG,3-5DG,9DG,4G</t>
-  </si>
-  <si>
-    <t>1-7DG,3-5DG</t>
-  </si>
-  <si>
-    <t>1-7DG</t>
-  </si>
-  <si>
-    <t>3G</t>
-  </si>
-  <si>
-    <t>IG</t>
-  </si>
-  <si>
-    <t>IIG</t>
-  </si>
-  <si>
-    <t>4G</t>
-  </si>
-  <si>
-    <t>进路序号</t>
-  </si>
-  <si>
-    <t>信号机显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信号机名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迎面进路（列车）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迎面进路（调车）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XLA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XTA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XFLA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XFTA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SILA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S3LA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIILA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S4LA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SLA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SFLA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SFTA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X3LA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XILA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XIILA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X4LA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S3DA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIDA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIIDA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S4DA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D5A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D7A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/3,5/7,(11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排列进路按下起点按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排列进路按下终点按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D8,D6,X4D,SF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D8,D4,D2,XIID,S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D8,D4,D2,X4D,S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D10,D6,D2,X3D,S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1/3),[5/7],9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1/3),[5/7],(9)</t>
-  </si>
-  <si>
-    <t>1/3,5/7,11,12,6/8,2/4</t>
-  </si>
-  <si>
-    <t>IAG,1-7DG,11DG,IG,12DG,6DG,4DG</t>
-  </si>
-  <si>
-    <t>[1/3],(5/7),(11)</t>
-  </si>
-  <si>
-    <t>[1/3],(5/7),11</t>
-  </si>
-  <si>
-    <t>1/3,5/7,9</t>
-  </si>
-  <si>
-    <t>1/3,5/7,(9)</t>
-  </si>
-  <si>
-    <t>1/3,5/7,9,10,6/8,2/4</t>
-  </si>
-  <si>
-    <t>D3,D5,SII,XIID,D8,D4,D2</t>
-  </si>
-  <si>
-    <t>(11),(5/7),[1/3]</t>
-  </si>
-  <si>
-    <t>D7,D3,XF,S3D</t>
-  </si>
-  <si>
-    <t>D7,D3,XF,SID</t>
-  </si>
-  <si>
-    <t>9,5/7,1/3</t>
-  </si>
-  <si>
-    <t>D5,D3,XF,SIID</t>
-  </si>
-  <si>
-    <t>(9),5/7,1/3</t>
-  </si>
-  <si>
-    <t>D5,D3,XF,S4D</t>
-  </si>
-  <si>
-    <t>D5,D1,X,S3D</t>
-  </si>
-  <si>
-    <t>11,5/7,1/3</t>
-  </si>
-  <si>
-    <t>D5,D1,X,SID</t>
-  </si>
-  <si>
-    <t>9,[5/7](1/3)</t>
-  </si>
-  <si>
-    <t>D5,D1,X,SIID</t>
-  </si>
-  <si>
-    <t>(9),[5/7](1/3)</t>
-  </si>
-  <si>
-    <t>D5,D1,X,S4D</t>
-  </si>
-  <si>
-    <t>IIBG,2DG,4DG,6DG,12DG,3G</t>
-  </si>
-  <si>
-    <t>IIBG,2DG,4DG,6DG,12DG,IG</t>
-  </si>
-  <si>
-    <t>D2,D4,D8,XIID</t>
-  </si>
-  <si>
-    <t>IIBG,2DG,8DG,10DG,IIG</t>
-  </si>
-  <si>
-    <t>2/4,6/8,(10)</t>
-  </si>
-  <si>
-    <t>D2,D4,D8,X4D</t>
-  </si>
-  <si>
-    <t>IIBG,2DG,8DG,10DG,4G</t>
-  </si>
-  <si>
-    <t>D2,D4,D8,SIID,XII,D5,D3</t>
-  </si>
-  <si>
-    <t>IIBG,2DG,8DG,10DG,IIG,9DG,3-5DG,IIAG</t>
-  </si>
-  <si>
-    <t>2/4,6/8,(12)</t>
-  </si>
-  <si>
-    <t>2/4,6/8,12</t>
-  </si>
-  <si>
-    <t>2/4,(6/8),10</t>
-  </si>
-  <si>
-    <t>4DG,6DG,8DG,10DG,IIG</t>
-  </si>
-  <si>
-    <t>2/4,(6/8),(10)</t>
-  </si>
-  <si>
-    <t>4DG,6DG,8DG,10DG,4G</t>
-  </si>
-  <si>
-    <t>2/4,6/8,12,11,5/7,1/3</t>
-  </si>
-  <si>
-    <t>4DG,6DG,12DG,IG,11DG,1-7DG,IAG</t>
-  </si>
-  <si>
-    <t>12,6/8,2/4</t>
-  </si>
-  <si>
-    <t>(10),(6/8),2/4</t>
-  </si>
-  <si>
-    <t>12DG,6DG,4DG,2DG,IIBG</t>
-  </si>
-  <si>
-    <t>12,6/8,(2/4)</t>
-  </si>
-  <si>
-    <t>D10,D6,D2,XID,S</t>
-  </si>
-  <si>
-    <t>10,6/8,2/4</t>
-  </si>
-  <si>
-    <t>1/3,5/7,(11)</t>
-  </si>
-  <si>
-    <t>(1/3),[5/7],9</t>
-  </si>
-  <si>
-    <t>(1/3),[5/7]</t>
-  </si>
-  <si>
-    <t>10,(6/8),2/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(10),6/8,2/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAG,1-7DG-A,1-7DG-B,1-7DG-C,11DG-A,11DG-B,IG,12DG-A,12DG-B,6DG-A,6DG-B,4DG-A,4DG-B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IIAG,3-5DG-A,5-7DC,1-7DG-C,11DG-A,11DG-C,11DG-D,3G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IIAG,3-5DG-A,5-7DC,1-7DG-C,11DG-A,11DG-B,IG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IIAG,3-5DG-A,3-5DG-B,3-5DG-C,9DG-A,9DG-B,IIG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IIAG,3-5DG-A,3-5DG-B,3-5DG-C,9DG-A,9DG-C,9DG-D,4G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IIBG,2DG-B,4-2DC,4DG-A,6DG-A,6DG-B,12DG-B,12DG-C,12DG-D,3G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IIBG,2DG-B,4-2DC,4DG-A,6DG-A,6DG-B,12DG-A,12DG-B,IG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IIBG,2DG-A,2DG-B,8DG-A,8DG-B,10DG-A,10DG-B,IIG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IIBG,2DG-A,2DG-B,8DG-A,8DG-B,10DG-B,10DG-C,10DG-D,4G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IIBG,2DG-A,2DG-B,8DG-A,8DG-B,10DG-A,10DG-B,IIG,9DG-A,9DG-B,3-5DG-A,3-5DG-B,3-5DG-C,IIAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11DG-A,11DG-B,1-7DG-C,5-7DC,3-5DG-A,IIAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11DG-A,11DG-C,11DG-D,1-7DG-C,5-7DC,3-5DG-A,IIAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9DG-A,9DG-B,3-5DG-A,3-5DG-B,3-5DG-C,IIAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9DG-A,9DG-B,9DG-C,3-5DG-A,3-5DG-B,3-5DG-C,IIAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11DG-A,11DG-C,11DG-D,1-7DG-A,1-7DG-B,1-7DG-C,IAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11DG-A,11DG-B,1-7DG-A,1-7DG-B,1-7DG-C,IAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9DG-A,9DG-B,1-7DG,3-5DG-C,1-3DC,1-7DG-A,IAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9DG-A,9DG-B,9DG-C,3-5DG-C,1-3DC,1-7DG-A,IAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4DG-A,4DG-B,6DG-A,6DG-B,12DG-A,12DG-B,IG,11DG-A,11DG-B,1-7DG-A,1-7DG-B,1-7DG-C,IAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4DG-A,4DG-B,6DG-B,6-8DC,8DG-A,10DG-B,10DG-C,10DG-D,4G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4DG-A,4DG-B,6DG-B,6-8DC,8DG-A,10DG-A,10DG-B,IIG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4DG-A,4DG-B,6DG-A,6DG-B,12DG-B,12DG-C,12DG-D,3G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4DG-A,4DG-B,6DG-A,6DG-B,12DG-A,12DG-B,IG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12DG-B,12DG-C,12DG-D,6DG-A,6DG-B,4DG-A,4DG-B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12DG-A,12DG-B,6DG-A,6DG-B,4DG-A,4DG-B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10DG-A,10DG-B,8DG-A,6-8DC,6DG-B,4DG-A,4DG-B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10DG-B,10DG-C,10DG-D,8DG-A,6-8DC,6DG-B,4DG-A,4DG-B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12DG-B,12DG-C,12DG-D,6DG-A,6DG-B,4DG-A,4-2DC,2DG-B,IIBG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12DG-A,12DG-B,6DG-A,6DG-B,4DG-A,4-2DC,2DG-B,IIBG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10DG-A,10DG-B,8DG-A,8DG-B,2DG-A,2DG-B,IIBG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10DG-B,10DG-C,10DG-D,8DG-A,8DG-B,2DG-A,2DG-B,IIBG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-7DG-A,1-7DG-B,1-7DG-C,11DG-A,11DG-C,11DG-D,3G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-7DG-A,1-7DG-B,1-7DG-C,11DG-A,11DG-B,IG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-7DG-A,1-3DC,3-5DG-C,9DG-A,9DG-B,IIG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-7DG-A,1-3DC,3-5DG-C,9DG-A,9DG-C,9DG-D,4G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-7DG-A,1-3DC,3-5DG-C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-7DG-A,1-7DG-B,1-7DG-C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4,6,8,10</t>
+  </si>
+  <si>
+    <t>2,4,6,8,(10)</t>
+  </si>
+  <si>
+    <t>2,4,6,8,(12)</t>
+  </si>
+  <si>
+    <t>2,4,6,8,12</t>
+  </si>
+  <si>
+    <t>(12),6,8,2,4</t>
+  </si>
+  <si>
+    <t>12,6,8,2,4</t>
+  </si>
+  <si>
+    <t>10,6,8,2,4</t>
+  </si>
+  <si>
+    <t>(10),6,8,2,4</t>
+  </si>
+  <si>
+    <t>(2),(4),6,8,(12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2),(4),6,8,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4,(6),(8),10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4,(6),(8),(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,(6),(8),2,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(10),(6),(8),2,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(12),6,8,(2),(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,6,8,(2),(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,7,(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,7,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1),(3),9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1),(3),(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,7,11,12,6,8,2,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5),(7),(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,7,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5),(7),11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,5,(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IIAG,3-5DG-A,3-5DG-B,3-5DG-C,9DG-A,9DG-B,IIG,10DG-A,10DG-B,8DG-A,6-8DC,6DG-B,4DG-A,4DG-B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(11),(5),(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,(5),(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,5,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(9),5,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(11),7,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,7,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(9),(1),(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,(1),(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4,6,8,10,9,3,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4,6,8,12,11,7,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1),(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,5,9,10,(6),(8),4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XF,XII</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X,XI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S,SII</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF,SI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -929,82 +988,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="24.21875" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="48.88671875" customWidth="1"/>
+    <col min="7" max="7" width="88.88671875" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="J1" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="H2" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1012,31 +1071,31 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1044,31 +1103,31 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1076,31 +1135,31 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1108,28 +1167,28 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -1137,31 +1196,31 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="J7">
         <v>6</v>
@@ -1169,31 +1228,31 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
         <v>93</v>
       </c>
-      <c r="B8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" t="s">
-        <v>63</v>
-      </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="J8">
         <v>7</v>
@@ -1201,31 +1260,31 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="J9">
         <v>8</v>
@@ -1233,31 +1292,31 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="H10" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="J10">
         <v>9</v>
@@ -1265,28 +1324,28 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>167</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="I11" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="J11">
         <v>10</v>
@@ -1294,25 +1353,25 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="J12">
         <v>11</v>
@@ -1320,25 +1379,25 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="J13">
         <v>12</v>
@@ -1346,25 +1405,25 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="J14">
         <v>13</v>
@@ -1372,25 +1431,25 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="F15" t="s">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="G15" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="J15">
         <v>14</v>
@@ -1398,25 +1457,25 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="J16">
         <v>15</v>
@@ -1424,25 +1483,25 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="F17" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="G17" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="J17">
         <v>16</v>
@@ -1450,25 +1509,25 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="F18" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="G18" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="J18">
         <v>17</v>
@@ -1476,25 +1535,25 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="F19" t="s">
-        <v>144</v>
+        <v>66</v>
       </c>
       <c r="G19" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="J19">
         <v>18</v>
@@ -1502,31 +1561,31 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s">
         <v>96</v>
       </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" t="s">
-        <v>145</v>
-      </c>
       <c r="H20" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="I20" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="J20">
         <v>19</v>
@@ -1534,31 +1593,31 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G21" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="H21" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="I21" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="J21">
         <v>20</v>
@@ -1566,31 +1625,31 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="F22" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="G22" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="H22" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="I22" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="J22">
         <v>21</v>
@@ -1598,31 +1657,31 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" t="s">
         <v>99</v>
       </c>
-      <c r="B23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" t="s">
-        <v>149</v>
-      </c>
-      <c r="F23" t="s">
-        <v>150</v>
-      </c>
-      <c r="G23" t="s">
-        <v>151</v>
-      </c>
       <c r="H23" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="J23">
         <v>22</v>
@@ -1630,28 +1689,28 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" t="s">
         <v>100</v>
       </c>
-      <c r="B24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" t="s">
-        <v>152</v>
-      </c>
-      <c r="G24" t="s">
-        <v>153</v>
-      </c>
       <c r="I24" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="J24">
         <v>23</v>
@@ -1659,28 +1718,28 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="F25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" t="s">
         <v>43</v>
       </c>
-      <c r="G25" t="s">
-        <v>71</v>
-      </c>
-      <c r="H25" t="s">
-        <v>82</v>
-      </c>
       <c r="I25" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="J25">
         <v>24</v>
@@ -1688,28 +1747,28 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="F26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" t="s">
         <v>44</v>
       </c>
-      <c r="G26" t="s">
-        <v>72</v>
-      </c>
-      <c r="H26" t="s">
-        <v>83</v>
-      </c>
       <c r="I26" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="J26">
         <v>25</v>
@@ -1717,28 +1776,28 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="F27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" t="s">
+        <v>111</v>
+      </c>
+      <c r="H27" t="s">
         <v>45</v>
       </c>
-      <c r="G27" t="s">
-        <v>157</v>
-      </c>
-      <c r="H27" t="s">
-        <v>84</v>
-      </c>
       <c r="I27" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="J27">
         <v>26</v>
@@ -1746,28 +1805,28 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="F28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" t="s">
         <v>46</v>
       </c>
-      <c r="G28" t="s">
-        <v>159</v>
-      </c>
-      <c r="H28" t="s">
-        <v>85</v>
-      </c>
       <c r="I28" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="J28">
         <v>27</v>
@@ -1775,28 +1834,28 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F29" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="I29" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="J29">
         <v>28</v>
@@ -1804,25 +1863,25 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="J30">
         <v>29</v>
@@ -1830,25 +1889,25 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="J31">
         <v>30</v>
@@ -1856,25 +1915,25 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="F32" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G32" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="J32">
         <v>31</v>
@@ -1882,25 +1941,25 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
         <v>14</v>
       </c>
-      <c r="D33" t="s">
-        <v>18</v>
-      </c>
       <c r="E33" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="F33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" t="s">
         <v>117</v>
-      </c>
-      <c r="G33" t="s">
-        <v>74</v>
       </c>
       <c r="J33">
         <v>32</v>
@@ -1908,25 +1967,25 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E34" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="F34" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="G34" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="J34">
         <v>33</v>
@@ -1934,25 +1993,25 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E35" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>166</v>
+        <v>70</v>
       </c>
       <c r="G35" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="J35">
         <v>34</v>
@@ -1960,25 +2019,25 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="F36" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="G36" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="J36">
         <v>35</v>
@@ -1986,25 +2045,25 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
         <v>14</v>
       </c>
-      <c r="D37" t="s">
-        <v>18</v>
-      </c>
       <c r="E37" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="F37" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="G37" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="J37">
         <v>36</v>
@@ -2012,25 +2071,25 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
         <v>15</v>
       </c>
-      <c r="D38" t="s">
-        <v>19</v>
-      </c>
       <c r="E38" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="F38" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G38" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="J38">
         <v>37</v>
@@ -2038,25 +2097,25 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
         <v>15</v>
       </c>
-      <c r="D39" t="s">
-        <v>19</v>
-      </c>
       <c r="E39" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="F39" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="J39">
         <v>38</v>
@@ -2064,25 +2123,25 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
         <v>15</v>
       </c>
-      <c r="D40" t="s">
-        <v>19</v>
-      </c>
       <c r="E40" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="F40" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="J40">
         <v>39</v>
@@ -2090,25 +2149,25 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="B41" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
         <v>15</v>
       </c>
-      <c r="D41" t="s">
-        <v>19</v>
-      </c>
       <c r="E41" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="J41">
         <v>40</v>
@@ -2116,25 +2175,25 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
         <v>15</v>
       </c>
-      <c r="D42" t="s">
-        <v>19</v>
-      </c>
       <c r="E42" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F42" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="J42">
         <v>41</v>
@@ -2142,25 +2201,25 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s">
         <v>15</v>
       </c>
-      <c r="D43" t="s">
-        <v>19</v>
-      </c>
       <c r="E43" t="s">
-        <v>30</v>
+        <v>165</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="J43">
         <v>42</v>
